--- a/Running projects/UEP 17th Floor/Variation/01- variation order for DFCU (positive and negative) - Rev.xlsx
+++ b/Running projects/UEP 17th Floor/Variation/01- variation order for DFCU (positive and negative) - Rev.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C752D9B4-D51F-4C05-AAE7-E1CE13D137C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB9BFDF-B2E9-4713-9C0F-5447166B7F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$129</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -409,9 +409,39 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -439,41 +469,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -497,16 +497,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>870917</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>347042</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1076326</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -534,7 +534,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9719642" y="895350"/>
+          <a:off x="347042" y="104775"/>
           <a:ext cx="1110284" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -550,16 +550,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>362502</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>30508</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1019727</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>383071</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>46797</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>525946</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -576,8 +576,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10773327" y="1173508"/>
-          <a:ext cx="4487794" cy="635414"/>
+          <a:off x="1400727" y="382934"/>
+          <a:ext cx="4487794" cy="579092"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -658,6 +658,136 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>290720</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>29404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91947A62-4C9F-4A34-8056-229B31532B67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="7858125"/>
+          <a:ext cx="538370" cy="438979"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>175782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DF59EBA-14D3-CE3A-4E16-F8F3EC63E886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8572500"/>
+          <a:ext cx="6064250" cy="8287907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101601</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>701676</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23490E02-E927-F0A4-A8E5-B9AB697CD4CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="101601" y="17221200"/>
+          <a:ext cx="5949950" cy="7877175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -952,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A11:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A68" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M98" sqref="M98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,11 +1104,11 @@
   </cols>
   <sheetData>
     <row r="11" spans="1:9" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -988,11 +1118,11 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -1000,11 +1130,11 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -1014,28 +1144,28 @@
     <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
     </row>
     <row r="17" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
     </row>
     <row r="18" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
@@ -1049,73 +1179,73 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
     </row>
     <row r="20" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="47" t="s">
+      <c r="I21" s="36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="5" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="48">
+      <c r="A22" s="37">
         <v>1</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="39">
         <v>497700</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="39">
         <v>15000</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="40">
         <f>SUM(C22+D22)*27%</f>
         <v>138429</v>
       </c>
-      <c r="F22" s="51">
+      <c r="F22" s="40">
         <f>E22+D22+C22</f>
         <v>651129</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="G22" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="52">
+      <c r="H22" s="41">
         <v>1</v>
       </c>
       <c r="I22" s="29">
@@ -1125,30 +1255,30 @@
       <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:15" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="48">
+      <c r="A23" s="37">
         <v>2</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="39">
         <v>385600</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="39">
         <v>15000</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="40">
         <f>SUM(C23+D23)*27%</f>
         <v>108162</v>
       </c>
-      <c r="F23" s="51">
+      <c r="F23" s="40">
         <f>E23+D23+C23</f>
         <v>508762</v>
       </c>
-      <c r="G23" s="48" t="s">
+      <c r="G23" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="52">
+      <c r="H23" s="41">
         <v>1</v>
       </c>
       <c r="I23" s="29">
@@ -1158,17 +1288,17 @@
       <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:15" s="17" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54">
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="42">
         <f>SUM(I22:I23)</f>
         <v>1159891</v>
       </c>
@@ -1180,30 +1310,30 @@
     <row r="25" spans="1:15" ht="9.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:15" ht="9" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:15" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
     </row>
     <row r="28" spans="1:15" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:15" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1218,13 +1348,13 @@
       <c r="A30" s="27">
         <v>1</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="42"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="31">
         <v>950000</v>
       </c>
@@ -1237,16 +1367,16 @@
       </c>
     </row>
     <row r="31" spans="1:15" s="17" customFormat="1" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
       <c r="I31" s="28">
         <f>SUM(I30:I30)</f>
         <v>965000</v>
@@ -1259,16 +1389,16 @@
     <row r="32" spans="1:15" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:11" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
       <c r="I34" s="33">
         <f>I24-I31</f>
         <v>194891</v>
@@ -1347,8 +1477,9 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
+  <rowBreaks count="2" manualBreakCount="2">
     <brk id="41" max="10" man="1"/>
+    <brk id="86" max="8" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
